--- a/doc/添加数据库/example.xlsx
+++ b/doc/添加数据库/example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20364"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\25832\Desktop\rmj\code\RestaurantManager\doc\添加数据库\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myWork\大三上\Java小学期\homework\hbb2.0\RestaurantManager2.0\doc\添加数据库\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E617B1-D49C-4041-9B68-F455CBDE73C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D73584-D020-43E3-8724-82FAEBDAD723}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2600" yWindow="0" windowWidth="12710" windowHeight="9960" activeTab="1" xr2:uid="{24225326-9832-438A-8F05-9C3B35FC3698}"/>
+    <workbookView xWindow="2604" yWindow="0" windowWidth="12708" windowHeight="9960" activeTab="3" xr2:uid="{24225326-9832-438A-8F05-9C3B35FC3698}"/>
   </bookViews>
   <sheets>
     <sheet name="bill" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="83">
   <si>
     <t>itemId</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -314,6 +314,54 @@
   </si>
   <si>
     <t>private</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔬菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青岛啤酒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酒水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸡胸肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肉类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大白菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猪脚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲫鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水产品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛蛙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -690,18 +738,18 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.4140625" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" customWidth="1"/>
     <col min="2" max="2" width="53.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.75" customWidth="1"/>
-    <col min="4" max="4" width="14.08203125" customWidth="1"/>
-    <col min="5" max="5" width="24.58203125" customWidth="1"/>
-    <col min="6" max="6" width="11.08203125" customWidth="1"/>
-    <col min="7" max="7" width="12.08203125" customWidth="1"/>
+    <col min="3" max="3" width="15.77734375" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" customWidth="1"/>
+    <col min="5" max="5" width="24.5546875" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -715,7 +763,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -729,7 +777,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -743,7 +791,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -757,7 +805,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -771,7 +819,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -785,7 +833,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -799,7 +847,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -813,7 +861,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -827,7 +875,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -841,7 +889,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -855,7 +903,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -880,13 +928,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CBC9B53-CBCF-4F71-A790-DCAAE7595955}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>50</v>
       </c>
@@ -900,7 +948,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -914,7 +962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -942,9 +990,9 @@
       <selection sqref="A1:F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>54</v>
       </c>
@@ -964,7 +1012,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -984,7 +1032,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1004,7 +1052,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1024,7 +1072,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1044,7 +1092,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1064,7 +1112,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -1083,15 +1131,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBED192D-6C48-4742-BC7B-6EA4C7F5CFB0}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1101,18 +1149,126 @@
       <c r="C1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
       <c r="B2" t="s">
         <v>49</v>
       </c>
       <c r="C2">
         <v>100</v>
+      </c>
+      <c r="D2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3">
+        <v>50</v>
+      </c>
+      <c r="D3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+      <c r="D4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5">
+        <v>100</v>
+      </c>
+      <c r="D5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6">
+        <v>66</v>
+      </c>
+      <c r="D6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1124,9 +1280,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -1158,7 +1314,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -1204,9 +1360,9 @@
       <selection sqref="A1:D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -1220,7 +1376,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10000000</v>
       </c>
@@ -1234,7 +1390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10000001</v>
       </c>
@@ -1248,7 +1404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10000002</v>
       </c>
@@ -1262,7 +1418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10000003</v>
       </c>
@@ -1276,7 +1432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>10000004</v>
       </c>
@@ -1290,7 +1446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>10000005</v>
       </c>
@@ -1318,9 +1474,9 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -1337,7 +1493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -1351,7 +1507,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -1365,7 +1521,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -1379,7 +1535,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -1393,7 +1549,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -1407,7 +1563,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>33</v>
       </c>

--- a/doc/添加数据库/example.xlsx
+++ b/doc/添加数据库/example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myWork\大三上\Java小学期\homework\hbb2.0\RestaurantManager2.0\doc\添加数据库\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D73584-D020-43E3-8724-82FAEBDAD723}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A2A675-6DE9-49C2-AA21-823E2629C315}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2604" yWindow="0" windowWidth="12708" windowHeight="9960" activeTab="3" xr2:uid="{24225326-9832-438A-8F05-9C3B35FC3698}"/>
+    <workbookView xWindow="2604" yWindow="0" windowWidth="12708" windowHeight="9960" xr2:uid="{24225326-9832-438A-8F05-9C3B35FC3698}"/>
   </bookViews>
   <sheets>
     <sheet name="bill" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="79">
   <si>
     <t>itemId</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -129,46 +129,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>JS-KL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZC-SCY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>酸菜鱼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RC-CBX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>葱爆虾</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SC-WWC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>娃娃菜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>T-ZGT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>杂菇汤</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ZS-MF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>米饭</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -362,6 +338,14 @@
   </si>
   <si>
     <t>牛蛙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是一个commit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -732,10 +716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51C62974-CCEA-4983-AF4A-1DF69E72A330}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -749,7 +733,7 @@
     <col min="7" max="7" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -757,163 +741,199 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>43720.582951388889</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2">
         <v>0</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>43721.582951388889</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3">
         <v>1</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>400</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>43722.582951388889</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4">
         <v>0</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>43723.582951388889</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5">
         <v>1</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>400</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>43724.582951388889</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6">
         <v>0</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>500</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>43725.582951388889</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7">
         <v>1</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>700</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>43726.582951388889</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8">
         <v>0</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>43727.582951388889</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9">
         <v>1</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>43728.582951388889</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10">
         <v>0</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>43729.582951388889</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11">
         <v>1</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>1043</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>43730.582951388889</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12">
         <v>0</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>43</v>
       </c>
     </row>
@@ -936,16 +956,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -956,7 +976,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
@@ -970,7 +990,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -994,22 +1014,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E1" t="s">
         <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1017,13 +1037,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C2">
         <v>111111</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E2">
         <v>18566664444</v>
@@ -1037,13 +1057,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C3">
         <v>111111</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E3">
         <v>18566664445</v>
@@ -1057,13 +1077,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C4">
         <v>111111</v>
       </c>
       <c r="D4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E4">
         <v>18566664446</v>
@@ -1077,13 +1097,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C5">
         <v>111111</v>
       </c>
       <c r="D5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E5">
         <v>18566664447</v>
@@ -1097,13 +1117,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C6">
         <v>111111</v>
       </c>
       <c r="D6" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E6">
         <v>18566664448</v>
@@ -1120,7 +1140,7 @@
         <v>111111</v>
       </c>
       <c r="D7" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1133,7 +1153,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBED192D-6C48-4742-BC7B-6EA4C7F5CFB0}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A9"/>
     </sheetView>
   </sheetViews>
@@ -1144,13 +1164,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1158,13 +1178,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C2">
         <v>100</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1172,13 +1192,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C3">
         <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1186,13 +1206,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C4">
         <v>100</v>
       </c>
       <c r="D4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1200,13 +1220,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C5">
         <v>100</v>
       </c>
       <c r="D5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1214,13 +1234,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C6">
         <v>66</v>
       </c>
       <c r="D6" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1228,13 +1248,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C7">
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1242,13 +1262,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C8">
         <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1256,13 +1276,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C9">
         <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1284,39 +1304,39 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" t="s">
         <v>35</v>
       </c>
-      <c r="B1" t="s">
+      <c r="I1" t="s">
         <v>36</v>
       </c>
-      <c r="C1" t="s">
+      <c r="J1" t="s">
         <v>37</v>
-      </c>
-      <c r="D1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B2" s="1">
         <v>43722.582951388889</v>
@@ -1331,10 +1351,10 @@
         <v>80</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H2">
         <v>8</v>
@@ -1471,7 +1491,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1487,15 +1507,15 @@
         <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>24</v>
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
@@ -1508,11 +1528,11 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>25</v>
+      <c r="A3">
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -1522,11 +1542,11 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>27</v>
+      <c r="A4">
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -1536,11 +1556,11 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>29</v>
+      <c r="A5">
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -1550,11 +1570,11 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>31</v>
+      <c r="A6">
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C6">
         <v>6</v>
@@ -1564,11 +1584,11 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>33</v>
+      <c r="A7">
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C7">
         <v>7</v>
